--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/NORTH_DAKOTA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/NORTH_DAKOTA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C15">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -742,7 +742,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C27">
@@ -775,18 +775,18 @@
         <v>9</v>
       </c>
       <c r="D29">
-        <v>0.09090909090909091</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C30">
@@ -895,7 +895,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C38">
@@ -952,7 +952,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C42">
@@ -978,7 +978,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C44">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C46">
@@ -1035,7 +1035,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C48">
@@ -1092,7 +1092,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C52">
@@ -1328,7 +1328,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C69">
@@ -1398,7 +1398,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C74">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C76">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C85">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C87">
@@ -1804,7 +1804,7 @@
         <v>9</v>
       </c>
       <c r="D102">
-        <v>0.09090909090909091</v>
+        <v>0.09090909090909093</v>
       </c>
     </row>
     <row r="103">
@@ -1849,41 +1849,6 @@
       </c>
       <c r="D105">
         <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/NORTH_DAKOTA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/NORTH_DAKOTA_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Ostuacán</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Topia</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Total</t>
@@ -797,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -841,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Romita</t>
@@ -880,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -963,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -976,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -1046,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Tala</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Zapotitlán De Vadillo</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1134,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -1147,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>José Sixto Verduzco</t>
@@ -1160,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -1173,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -1186,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1269,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1282,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -1295,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1326,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -1339,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -1352,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1383,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Linares</t>
@@ -1396,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>San Nicolás De Los Garza</t>
@@ -1409,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1440,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -1453,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>San Sebastián Nicananduta</t>
@@ -1466,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Villa Díaz Ordaz</t>
@@ -1479,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1510,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1523,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tlachichuca</t>
@@ -1536,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1567,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1598,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1629,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Navolato</t>
@@ -1642,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1673,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1704,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -1717,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -1730,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -1743,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -1756,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -1769,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -1782,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -1795,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1826,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Total</t>
